--- a/pred_ohlcv/54_21/2019-10-30 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 ETH ohlcv.xlsx
@@ -1042,7 +1042,7 @@
         <v>-198.03833620705</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-250.0846624152285</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-205.9989624152284</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-221.6175624152285</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-212.0938624152285</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-212.0938624152285</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-201.8992624152285</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-170.9611624152285</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-183.9908624152285</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-171.5029624152285</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-143.5518624152284</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-82.71223778594052</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-260.9204203381446</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-218.7788615609328</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-218.7788615609328</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-223.0360615609328</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-203.9328615609328</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>2834.035771257248</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>2545.741871257248</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>2765.308671257248</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>2752.766771257247</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>2822.961471257247</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>2633.774171257247</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>2633.774171257247</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>2633.774171257247</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>2474.338571257248</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>2474.338571257248</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>2415.023571257248</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>2532.329771257248</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>2737.753971257247</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>2760.379071257248</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>2732.794771257248</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>3089.774977903074</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>3215.611477903074</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>3728.545877903074</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>3470.451910036349</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>3580.430510036349</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>3558.406861115485</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>3558.406861115485</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>3558.246861115485</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>3584.606461115485</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>3612.700861115485</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>3621.029066733463</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>3621.029066733463</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>3597.178766733462</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>3596.188766733463</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>3571.857866733463</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>3550.321766733463</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>3465.321766733463</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>3471.465766733463</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>3518.482466733463</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>3518.482466733463</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>3586.095466733463</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>3586.533466733463</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>3586.533466733463</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>3586.533466733463</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>3586.533466733463</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>3590.833466733463</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>3588.339266733463</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>3860.96582154589</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>3874.10902154589</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>3870.23912154589</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>3731.58612154589</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>3754.396021545891</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>3734.155521545891</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>3660.940421545891</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>3710.285421545891</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>3761.357721545891</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>3774.510721545891</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>3774.479321545891</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>3781.034421545891</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>3768.435221545891</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>3768.435221545891</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>3756.045221545891</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>3647.868921545891</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>3615.030461491788</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>3727.370461491788</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>3729.145661491788</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>3729.145661491788</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>3804.473061491788</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>3754.986261491788</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>3740.546261491788</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>3745.161561491788</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>3804.527061491788</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>3804.527061491788</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>3697.850961491788</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>3679.010161491788</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>3693.744183769015</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>3683.286983769015</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>3666.397892008547</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>4716.129430214118</v>
       </c>
       <c r="H1012">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>4716.129430214118</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>4759.373676281533</v>
       </c>
       <c r="H1014">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>4759.373676281533</v>
       </c>
       <c r="H1015">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>4732.583876281534</v>
       </c>
       <c r="H1016">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>4649.579768852448</v>
       </c>
       <c r="H1017">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>4550.941068852448</v>
       </c>
       <c r="H1018">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>4498.257568852448</v>
       </c>
       <c r="H1019">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>4505.794568852448</v>
       </c>
       <c r="H1020">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>4537.26408145617</v>
       </c>
       <c r="H1047">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>4519.85618145617</v>
       </c>
       <c r="H1048">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>4542.41268145617</v>
       </c>
       <c r="H1049">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>4600.203012749192</v>
       </c>
       <c r="H1050">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>4592.410412749192</v>
       </c>
       <c r="H1051">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>4614.628012749192</v>
       </c>
       <c r="H1052">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>4576.267912749192</v>
       </c>
       <c r="H1053">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>4692.616112749192</v>
       </c>
       <c r="H1054">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>4669.370712749193</v>
       </c>
       <c r="H1055">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>4627.437212749192</v>
       </c>
       <c r="H1056">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>4627.437212749192</v>
       </c>
       <c r="H1057">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>4628.113567384656</v>
       </c>
       <c r="H1058">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>4614.836567384656</v>
       </c>
       <c r="H1059">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>4614.836567384656</v>
       </c>
       <c r="H1060">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>4590.752767384655</v>
       </c>
       <c r="H1061">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>4590.752767384655</v>
       </c>
       <c r="H1062">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>4590.752767384655</v>
       </c>
       <c r="H1063">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>4590.752767384655</v>
       </c>
       <c r="H1064">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>4557.443067384655</v>
       </c>
       <c r="H1065">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>4572.470867384655</v>
       </c>
       <c r="H1066">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>4572.470867384655</v>
       </c>
       <c r="H1067">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>4570.064867384655</v>
       </c>
       <c r="H1068">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>4570.064867384655</v>
       </c>
       <c r="H1069">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>4303.271167384655</v>
       </c>
       <c r="H1070">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>4395.983567384656</v>
       </c>
       <c r="H1080">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>4395.983567384656</v>
       </c>
       <c r="H1081">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>4395.983567384656</v>
       </c>
       <c r="H1082">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>4376.624067384656</v>
       </c>
       <c r="H1083">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>4353.188967384656</v>
       </c>
       <c r="H1084">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>4377.686267384656</v>
       </c>
       <c r="H1086">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>4377.686267384656</v>
       </c>
       <c r="H1087">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 ETH ohlcv.xlsx
@@ -1536,7 +1536,7 @@
         <v>-131.0607624152285</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-103.3454288656455</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-82.71223778594052</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-203.9328615609328</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-203.9328615609328</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-83.18196156093285</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>0.1576384390671564</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-41.90841248685877</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-41.87981248685877</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-56.88381230201588</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>355.8374205698076</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>2834.035771257248</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>2545.741871257248</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>2765.308671257248</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>2752.766771257247</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>2822.961471257247</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>2633.774171257247</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>2633.774171257247</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>2633.774171257247</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>2474.338571257248</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>2474.338571257248</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>2415.023571257248</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>2532.329771257248</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>2737.753971257247</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>2760.379071257248</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>2732.794771257248</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>3089.774977903074</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>3215.611477903074</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>3728.545877903074</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>4436.908074536323</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>4436.908074536323</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>4473.482674536323</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>4245.584774536323</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>4170.463174536322</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>3799.559174536322</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>3864.435873099411</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>3783.813873099411</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>3469.287373099412</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>3466.716210036348</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>3467.716210036348</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>3580.430510036349</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>3558.406861115485</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>3558.406861115485</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>3558.246861115485</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>3584.606461115485</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>3612.700861115485</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>3621.029066733463</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>3621.029066733463</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>3597.178766733462</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>3596.188766733463</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>3571.857866733463</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>3550.321766733463</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>3465.321766733463</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>3586.095466733463</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>3578.895566733463</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>3592.428821545891</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>3592.428821545891</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>3614.65992154589</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>3929.16702154589</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>3860.96582154589</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>3874.10902154589</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>3870.23912154589</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>3731.58612154589</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>3754.396021545891</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>3734.155521545891</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>3660.940421545891</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>3710.285421545891</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>3736.031621545891</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>3761.357721545891</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>3774.510721545891</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>3774.479321545891</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>3781.034421545891</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>3768.435221545891</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>3768.435221545891</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>3756.045221545891</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>3647.868921545891</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>3652.894721545891</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>3616.231661491788</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>3579.600761491788</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>3583.902961491788</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>3583.902961491788</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>3599.084861491788</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>3607.447561491788</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>3595.120861491788</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>3623.574061491788</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>3598.217761491788</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>3615.030461491788</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>3727.370461491788</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>3729.145661491788</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>3729.145661491788</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>3804.473061491788</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>3754.986261491788</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>3740.546261491788</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>3745.161561491788</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>3804.527061491788</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>3804.527061491788</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>3697.850961491788</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>3679.010161491788</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>3693.744183769015</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>3683.286983769015</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>3666.397892008547</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>4716.129430214118</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>4716.129430214118</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>4759.373676281533</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>4759.373676281533</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>4732.583876281534</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>4649.579768852448</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>4550.941068852448</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
